--- a/CPIT380-Group Project-Rubric.xlsx
+++ b/CPIT380-Group Project-Rubric.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mjed\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mjed\Documents\GitHub\380\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744AB355-4FDE-4ABC-B9D8-0F53096EC834}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD90EB26-3403-4C77-98E2-B54C3A96C409}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="285" windowWidth="25440" windowHeight="15390" xr2:uid="{DE624C96-03EB-4C7E-9BFF-29C1F61051EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DE624C96-03EB-4C7E-9BFF-29C1F61051EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <r>
       <t>S</t>
@@ -487,6 +487,9 @@
   </si>
   <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>MJ will do it</t>
   </si>
 </sst>
 </file>
@@ -1145,7 +1148,7 @@
   <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1208,7 +1211,9 @@
       <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="D4" s="11">
         <v>1</v>
       </c>
